--- a/_resource/excel/R-任务-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/R-任务-玩家属性-(框架维护,请勿修改).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -251,9 +251,6 @@
     <t>LogicName(string)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -479,6 +476,32 @@
   </si>
   <si>
     <t>#taskclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1077,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1119,7 +1142,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1197,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>60</v>
@@ -1239,7 +1262,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>22</v>
@@ -1254,7 +1277,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>26</v>
@@ -1429,13 +1452,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1471,13 +1494,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>63</v>
+      <c r="AD4" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>51</v>
@@ -1486,7 +1509,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>0</v>
@@ -1506,19 +1529,19 @@
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>56</v>
@@ -1527,10 +1550,10 @@
         <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1589,19 +1612,19 @@
     </row>
     <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>56</v>
@@ -1610,7 +1633,7 @@
         <v>56</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1669,19 +1692,19 @@
     </row>
     <row r="7" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>56</v>
@@ -1690,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1749,19 +1772,19 @@
     </row>
     <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8" s="11">
         <v>0</v>
@@ -1820,19 +1843,19 @@
     </row>
     <row r="9" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="11">
         <v>0</v>
@@ -1891,16 +1914,16 @@
     </row>
     <row r="10" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P10" s="13">
         <v>0</v>
@@ -1959,16 +1982,16 @@
     </row>
     <row r="11" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P11" s="13">
         <v>0</v>
@@ -2027,16 +2050,16 @@
     </row>
     <row r="12" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="14"/>
       <c r="J12" s="14" t="s">
@@ -2099,20 +2122,20 @@
     </row>
     <row r="13" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P13" s="12">
         <v>0</v>
@@ -2171,19 +2194,19 @@
     </row>
     <row r="14" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="J14" s="14"/>
       <c r="P14" s="12">
@@ -2243,19 +2266,19 @@
     </row>
     <row r="15" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="J15" s="14"/>
       <c r="P15" s="12">
@@ -2315,20 +2338,20 @@
     </row>
     <row r="16" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" s="12">
         <v>0</v>
@@ -2387,20 +2410,20 @@
     </row>
     <row r="17" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P17" s="12">
         <v>0</v>
@@ -2459,20 +2482,20 @@
     </row>
     <row r="18" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P18" s="12">
         <v>0</v>
@@ -2531,16 +2554,16 @@
     </row>
     <row r="19" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="14"/>
       <c r="J19" s="14"/>
@@ -2601,17 +2624,17 @@
     </row>
     <row r="20" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>

--- a/_resource/excel/R-任务-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/R-任务-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>同步客户端</t>
-  </si>
-  <si>
-    <t>延迟同步客户端</t>
   </si>
   <si>
     <t>同步查询者</t>
@@ -502,6 +499,18 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟同步时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,26 +1132,26 @@
     <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
+    <col min="23" max="24" width="15" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1179,9 +1188,10 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1190,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -1205,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1220,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>12</v>
@@ -1246,56 +1256,59 @@
       <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
+      <c r="AL2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1378,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1407,153 +1420,159 @@
       <c r="AK3" s="9">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" s="10" t="s">
+      <c r="F5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="I5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1586,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
         <v>1</v>
       </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
       <c r="AB5" s="5">
         <v>0</v>
       </c>
@@ -1609,111 +1628,117 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1769,161 +1794,170 @@
       <c r="AG7" s="5">
         <v>0</v>
       </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="11">
+      <c r="C9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P10" s="13">
         <v>0</v>
@@ -1979,19 +2013,22 @@
       <c r="AG10" s="13">
         <v>0</v>
       </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P11" s="13">
         <v>0</v>
@@ -2047,23 +2084,26 @@
       <c r="AG11" s="13">
         <v>0</v>
       </c>
+      <c r="AH11" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>
@@ -2119,23 +2159,26 @@
       <c r="AG12" s="12">
         <v>0</v>
       </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="12">
         <v>0</v>
@@ -2191,22 +2234,25 @@
       <c r="AG13" s="12">
         <v>0</v>
       </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="J14" s="14"/>
       <c r="P14" s="12">
@@ -2263,22 +2309,25 @@
       <c r="AG14" s="12">
         <v>0</v>
       </c>
+      <c r="AH14" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="J15" s="14"/>
       <c r="P15" s="12">
@@ -2335,23 +2384,26 @@
       <c r="AG15" s="12">
         <v>0</v>
       </c>
+      <c r="AH15" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P16" s="12">
         <v>0</v>
@@ -2407,23 +2459,26 @@
       <c r="AG16" s="12">
         <v>0</v>
       </c>
+      <c r="AH16" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="12">
         <v>0</v>
@@ -2479,23 +2534,26 @@
       <c r="AG17" s="12">
         <v>0</v>
       </c>
+      <c r="AH17" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P18" s="12">
         <v>0</v>
@@ -2551,19 +2609,22 @@
       <c r="AG18" s="12">
         <v>0</v>
       </c>
+      <c r="AH18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="14"/>
       <c r="J19" s="14"/>
@@ -2621,20 +2682,23 @@
       <c r="AG19" s="12">
         <v>0</v>
       </c>
+      <c r="AH19" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
@@ -2700,11 +2764,14 @@
       <c r="AG20" s="16">
         <v>0</v>
       </c>
-      <c r="AH20" s="16"/>
+      <c r="AH20" s="16">
+        <v>0</v>
+      </c>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/_resource/excel/R-任务-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/R-任务-玩家属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -113,6 +113,9 @@
     <t>同步客户端</t>
   </si>
   <si>
+    <t>延迟同步客户端</t>
+  </si>
+  <si>
     <t>同步查询者</t>
   </si>
   <si>
@@ -212,267 +215,252 @@
     <t>Relation(int)</t>
   </si>
   <si>
+    <t>Rank(int)</t>
+  </si>
+  <si>
+    <t>AddFunction(string)</t>
+  </si>
+  <si>
+    <t>UpdateFunction(string)</t>
+  </si>
+  <si>
+    <t>RemoveFunction(string)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>逻辑名称</t>
+  </si>
+  <si>
+    <t>主属性值名称</t>
+  </si>
+  <si>
+    <t>是否给客户端显示</t>
+  </si>
+  <si>
+    <t>Id(string)</t>
+  </si>
+  <si>
+    <t>LogicName(string)</t>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>RunParam(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组集合最大容量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>TaskChain</t>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>任务链列表( 服务器添加任务链使用 )</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链</t>
+  </si>
+  <si>
+    <t>任务链</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskchain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新任务链列表( 服务器使用 )</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新任务链</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskChain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskChain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链id</t>
+  </si>
+  <si>
+    <t>任务链序号</t>
+  </si>
+  <si>
+    <t>任务链id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新任务链id</t>
+  </si>
+  <si>
+    <t>刷新任务链 刷新时间</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+  </si>
+  <si>
+    <t>条件列表</t>
+  </si>
+  <si>
+    <t>前置条件列表</t>
+  </si>
+  <si>
+    <t>任务结束时间( 0 表示不是时限任务, 分未接取和接取两种时间 )</t>
+  </si>
+  <si>
+    <t>任务类型( 服务器用来条件判断使用 )</t>
+  </si>
+  <si>
+    <t>刷新id</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>preconditions</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>#taskclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Guild(int)</t>
-  </si>
-  <si>
-    <t>Rank(int)</t>
-  </si>
-  <si>
-    <t>AddFunction(string)</t>
-  </si>
-  <si>
-    <t>UpdateFunction(string)</t>
-  </si>
-  <si>
-    <t>RemoveFunction(string)</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>逻辑名称</t>
-  </si>
-  <si>
-    <t>主属性值名称</t>
-  </si>
-  <si>
-    <t>是否给客户端显示</t>
-  </si>
-  <si>
-    <t>Id(string)</t>
-  </si>
-  <si>
-    <t>LogicName(string)</t>
-  </si>
-  <si>
-    <t>基础属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>RunParam(string)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组集合最大容量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacity(string)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>record</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否屏蔽创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>TaskChain</t>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>任务链列表( 服务器添加任务链使用 )</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务链</t>
-  </si>
-  <si>
-    <t>任务链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskchain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新任务链列表( 服务器使用 )</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>retaskchain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReTaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新任务链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务链id</t>
-  </si>
-  <si>
-    <t>任务链序号</t>
-  </si>
-  <si>
-    <t>任务链id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务链序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReTaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReTaskChain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新任务链id</t>
-  </si>
-  <si>
-    <t>刷新任务链 刷新时间</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务链</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务id</t>
-  </si>
-  <si>
-    <t>条件列表</t>
-  </si>
-  <si>
-    <t>前置条件列表</t>
-  </si>
-  <si>
-    <t>任务结束时间( 0 表示不是时限任务, 分未接取和接取两种时间 )</t>
-  </si>
-  <si>
-    <t>任务类型( 服务器用来条件判断使用 )</t>
-  </si>
-  <si>
-    <t>刷新id</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>preconditions</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>refresh</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>#taskclass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -502,6 +490,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>uint32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -510,7 +502,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>延迟同步时间</t>
+    <t>TaskRefresh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskRefresh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskrefresh</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,7 +1151,7 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1256,56 +1256,56 @@
       <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>129</v>
+      <c r="W2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>62</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="AM2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.15">
@@ -1429,43 +1429,43 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>67</v>
@@ -1477,52 +1477,52 @@
         <v>73</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>50</v>
+        <v>123</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="AG4" s="10" t="s">
         <v>51</v>
@@ -1723,13 +1723,13 @@
         <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>55</v>
@@ -1738,7 +1738,7 @@
         <v>55</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1800,19 +1800,19 @@
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P8" s="11">
         <v>0</v>
@@ -1874,19 +1874,19 @@
     </row>
     <row r="9" spans="1:39" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P9" s="11">
         <v>0</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="10" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>55</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="11" spans="1:39" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="P11" s="13">
         <v>0</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="12" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>75</v>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="14" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J14" s="14"/>
       <c r="P14" s="12">
@@ -2315,19 +2315,19 @@
     </row>
     <row r="15" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J15" s="14"/>
       <c r="P15" s="12">
@@ -2390,13 +2390,13 @@
     </row>
     <row r="16" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>64</v>
@@ -2465,20 +2465,20 @@
     </row>
     <row r="17" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P17" s="12">
         <v>0</v>
@@ -2540,20 +2540,20 @@
     </row>
     <row r="18" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P18" s="12">
         <v>0</v>
@@ -2615,13 +2615,13 @@
     </row>
     <row r="19" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>69</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="20" spans="1:39" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="15" t="s">
